--- a/11-24 flex/Sprendimai/Sprendimas1/Schema/Schema.xlsx
+++ b/11-24 flex/Sprendimai/Sprendimas1/Schema/Schema.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28695" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -59,836 +58,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="504825" y="352424"/>
-          <a:ext cx="11372850" cy="5743575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="657225" y="523874"/>
-          <a:ext cx="11039475" cy="704851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="733425" y="647699"/>
-          <a:ext cx="5048250" cy="419101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6581775" y="628649"/>
-          <a:ext cx="5048250" cy="419101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5915025" y="638174"/>
-          <a:ext cx="552450" cy="419101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="666750" y="1352549"/>
-          <a:ext cx="10953750" cy="419101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4467225" y="1904999"/>
-          <a:ext cx="3371850" cy="3810001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>410771</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4610099" y="2085974"/>
-          <a:ext cx="3115872" cy="1685926"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>372671</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4571999" y="3914774"/>
-          <a:ext cx="3115872" cy="1685926"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="666750" y="1933574"/>
-          <a:ext cx="3543300" cy="3810001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>426330</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="809624" y="2114549"/>
-          <a:ext cx="3274306" cy="1685926"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>388230</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="771524" y="3943349"/>
-          <a:ext cx="3274306" cy="1685926"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8153400" y="1885949"/>
-          <a:ext cx="3543300" cy="3810001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>597780</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8296274" y="2066924"/>
-          <a:ext cx="3274306" cy="1685926"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>559680</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8258174" y="3895724"/>
-          <a:ext cx="3274306" cy="1685926"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1840,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1855,21 +1024,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V18:V19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
